--- a/working/taylor/growth.years.xlsx
+++ b/working/taylor/growth.years.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/working/taylor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD828CF-884C-2A4B-BB2B-398B786F66C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39538140-8E54-F84F-AFE6-16083B977B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="4100" windowWidth="27640" windowHeight="15880" xr2:uid="{FC7F562E-7767-F14B-B79E-52E09DB483D0}"/>
+    <workbookView xWindow="1160" yWindow="920" windowWidth="27640" windowHeight="15880" xr2:uid="{FC7F562E-7767-F14B-B79E-52E09DB483D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>cross</t>
   </si>
@@ -75,15 +75,6 @@
   </si>
   <si>
     <t>U</t>
-  </si>
-  <si>
-    <t>ib72</t>
-  </si>
-  <si>
-    <t>1f174</t>
-  </si>
-  <si>
-    <t>what is sirexdam for the BCs?</t>
   </si>
 </sst>
 </file>
@@ -435,15 +426,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2F3F8D-FC82-854D-97F0-F4B332ADF374}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -488,11 +479,8 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -508,8 +496,14 @@
       <c r="E3">
         <v>2006</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -532,7 +526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -548,8 +542,14 @@
       <c r="E5">
         <v>2006</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -572,7 +572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -595,7 +595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -611,11 +611,14 @@
       <c r="E8">
         <v>2007</v>
       </c>
-      <c r="M8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -638,7 +641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -654,8 +657,14 @@
       <c r="E10">
         <v>2007</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -676,9 +685,6 @@
       </c>
       <c r="G11">
         <v>10</v>
-      </c>
-      <c r="J11" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
